--- a/medicine/Enfance/Isabelle_Carrier/Isabelle_Carrier.xlsx
+++ b/medicine/Enfance/Isabelle_Carrier/Isabelle_Carrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Carrier (née en 1964) est une auteure, graphiste et illustratrice française, dans le domaine de la littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Carrier est née dans l'Isère en 1964. Elle grandit en partie en Amérique du Nord[1]. Elle suit une formation dans l''illustration à l'École des Arts Décoratifs de Strasbourg. Elle travaille d'abord dans la presse et la publicité. Puis elle commence à illustrer les livres qu'elle crée à destination des enfants. Elle vit dans la région grenobloise. Elle est l'épouse de Jérôme Ruillier, lui aussi auteur-illustrateur[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Carrier est née dans l'Isère en 1964. Elle grandit en partie en Amérique du Nord. Elle suit une formation dans l''illustration à l'École des Arts Décoratifs de Strasbourg. Elle travaille d'abord dans la presse et la publicité. Puis elle commence à illustrer les livres qu'elle crée à destination des enfants. Elle vit dans la région grenobloise. Elle est l'épouse de Jérôme Ruillier, lui aussi auteur-illustrateur,.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[4],[5], dont :
-Auteure et illustratrice
-Sacha en bateau (1994)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sacha en bateau (1994)
 Sacha le chat sorcier (1996)
 1, 2, 3, couleurs (1996)
 Mais où sont passés mes rennes ? (1998)
@@ -562,9 +613,43 @@
 Higher than the clouds, shapes (2010)
 1, 2, 3, splash !, numbers (2010)
 Les giboulées de Mam'zelle Suzon (2011)
-La petite mauvaise humeur (2012)
-Illustratrice
-Le fantôme du HLM, Natalie Zimmermann, Nathan, 1992
+La petite mauvaise humeur (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le fantôme du HLM, Natalie Zimmermann, Nathan, 1992
 Joseph Merlin, inventeur, Claude Clément, Épigones, 1993
 Bienvenue dans mon arbre, Catherine de Lasa, FP jeunesse, 1994
 Sacha le chat, Stéphan Levy-Kuentz, Épigones, 1994
@@ -577,39 +662,75 @@
 Le lièvre et la tortue, une fable de Jean de La Fontaine ; Bilboquet, 2006
 Le loup et le chien, une fable de Jean de La Fontaine ; Bilboquet, 2008
 Derrière le mur, Elsa Valentin, Alice jeunesse, 2010
-De l'autre côté, Laurence Fugier ; Alice jeunesse, 2013
-Adapté en film d'animation
-La Petite Casserole d'Anatole, Court métrage de Éric Montchaud, 2014[6]</t>
+De l'autre côté, Laurence Fugier ; Alice jeunesse, 2013</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Isabelle_Carrier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Isabelle_Carrier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adapté en film d'animation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Petite Casserole d'Anatole, Court métrage de Éric Montchaud, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_Carrier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sorcières 2010[7], catégorie Album, pour La petite casserole d'Anatole (Bilboquet)</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2010, catégorie Album, pour La petite casserole d'Anatole (Bilboquet)</t>
         </is>
       </c>
     </row>
